--- a/Code/Results/Cases/Case_2_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9873587802518704</v>
+        <v>1.015334624463914</v>
       </c>
       <c r="D2">
-        <v>1.00789068801212</v>
+        <v>1.022227495211961</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9960644251385622</v>
+        <v>1.027398919303818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037948081071006</v>
+        <v>1.027797478233221</v>
       </c>
       <c r="J2">
-        <v>1.00992427595069</v>
+        <v>1.020560732494065</v>
       </c>
       <c r="K2">
-        <v>1.01924117679082</v>
+        <v>1.025062496934452</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.007578862444153</v>
+        <v>1.030218762313519</v>
       </c>
       <c r="N2">
-        <v>1.007363025204932</v>
+        <v>1.01097423641684</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9912765684828349</v>
+        <v>1.016157263640075</v>
       </c>
       <c r="D3">
-        <v>1.010656029983166</v>
+        <v>1.022823782703563</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.000805827623608</v>
+        <v>1.028465428481951</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038785188049156</v>
+        <v>1.027912724250136</v>
       </c>
       <c r="J3">
-        <v>1.012007901375711</v>
+        <v>1.02101901036786</v>
       </c>
       <c r="K3">
-        <v>1.021154356609368</v>
+        <v>1.025465980798706</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.011428408108123</v>
+        <v>1.03109228877894</v>
       </c>
       <c r="N3">
-        <v>1.008059786542857</v>
+        <v>1.011126600144823</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9937621247702186</v>
+        <v>1.016689968287298</v>
       </c>
       <c r="D4">
-        <v>1.012412099190285</v>
+        <v>1.023209757317384</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.003814455291774</v>
+        <v>1.029156137189782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039305387175908</v>
+        <v>1.027986004275579</v>
       </c>
       <c r="J4">
-        <v>1.013326753294794</v>
+        <v>1.021315317404754</v>
       </c>
       <c r="K4">
-        <v>1.0223629941272</v>
+        <v>1.025726503443491</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.013867060177012</v>
+        <v>1.031657533419213</v>
       </c>
       <c r="N4">
-        <v>1.008500699760581</v>
+        <v>1.01122508176115</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9947955821411005</v>
+        <v>1.016914012252309</v>
       </c>
       <c r="D5">
-        <v>1.013142595044201</v>
+        <v>1.02337205217865</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.005065572267461</v>
+        <v>1.029446655390641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039519030042138</v>
+        <v>1.028016501358796</v>
       </c>
       <c r="J5">
-        <v>1.013874354735051</v>
+        <v>1.02143982896079</v>
       </c>
       <c r="K5">
-        <v>1.022864257656564</v>
+        <v>1.025835892373616</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.014880166339567</v>
+        <v>1.031895164929443</v>
       </c>
       <c r="N5">
-        <v>1.008683743534007</v>
+        <v>1.011266457231374</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9949684423607806</v>
+        <v>1.016951635748051</v>
       </c>
       <c r="D6">
-        <v>1.013264799773763</v>
+        <v>1.023399303979053</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.005274850563736</v>
+        <v>1.029495443111034</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039554608082331</v>
+        <v>1.028021603767645</v>
       </c>
       <c r="J6">
-        <v>1.013965903533473</v>
+        <v>1.021460731690366</v>
       </c>
       <c r="K6">
-        <v>1.022948025278865</v>
+        <v>1.025854251319912</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.015049573086503</v>
+        <v>1.031935064437671</v>
       </c>
       <c r="N6">
-        <v>1.008714343345601</v>
+        <v>1.011273402807694</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9937759784541075</v>
+        <v>1.016692961602371</v>
       </c>
       <c r="D7">
-        <v>1.012421890308205</v>
+        <v>1.023211925788948</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.00383122599853</v>
+        <v>1.029160018542362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039308261604522</v>
+        <v>1.027986412997262</v>
       </c>
       <c r="J7">
-        <v>1.013334097014642</v>
+        <v>1.021316981355259</v>
       </c>
       <c r="K7">
-        <v>1.022369718720485</v>
+        <v>1.025727965634756</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.013880644381696</v>
+        <v>1.031660708653659</v>
       </c>
       <c r="N7">
-        <v>1.008503154619832</v>
+        <v>1.011225634725625</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9886933041344881</v>
+        <v>1.015612555169182</v>
       </c>
       <c r="D8">
-        <v>1.008832273928673</v>
+        <v>1.022428984088647</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9976794106519589</v>
+        <v>1.027759225121192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038235485408377</v>
+        <v>1.02783669331013</v>
       </c>
       <c r="J8">
-        <v>1.010634652028088</v>
+        <v>1.020715656540081</v>
       </c>
       <c r="K8">
-        <v>1.019893920935355</v>
+        <v>1.025198971149002</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.008890907822131</v>
+        <v>1.030513971146352</v>
       </c>
       <c r="N8">
-        <v>1.007600595605736</v>
+        <v>1.011025750572758</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793395845759949</v>
+        <v>1.013711879274531</v>
       </c>
       <c r="D9">
-        <v>1.002241782607415</v>
+        <v>1.021050458576415</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9863603657173365</v>
+        <v>1.025295524510665</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036176435382332</v>
+        <v>1.027562999064489</v>
       </c>
       <c r="J9">
-        <v>1.005643620033984</v>
+        <v>1.019654332854543</v>
       </c>
       <c r="K9">
-        <v>1.015298592861242</v>
+        <v>1.02426258751559</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.999678681966027</v>
+        <v>1.028493421686888</v>
       </c>
       <c r="N9">
-        <v>1.005931066963061</v>
+        <v>1.010672718997262</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9728096387108459</v>
+        <v>1.012446950444736</v>
       </c>
       <c r="D10">
-        <v>0.9976548438453062</v>
+        <v>1.020132288005091</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9784567192701741</v>
+        <v>1.023656247546513</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034683939871524</v>
+        <v>1.027373934387244</v>
       </c>
       <c r="J10">
-        <v>1.002145183741735</v>
+        <v>1.018945691653018</v>
       </c>
       <c r="K10">
-        <v>1.012066570302552</v>
+        <v>1.023635554809045</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9932261521524316</v>
+        <v>1.027146536489323</v>
       </c>
       <c r="N10">
-        <v>1.004760421958232</v>
+        <v>1.010436841680071</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9699058448419485</v>
+        <v>1.011899757658281</v>
       </c>
       <c r="D11">
-        <v>0.9956191984595355</v>
+        <v>1.01973493071277</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.974940878070086</v>
+        <v>1.022947188261094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034007712815807</v>
+        <v>1.027290508410251</v>
       </c>
       <c r="J11">
-        <v>1.000586471285469</v>
+        <v>1.018638595532318</v>
       </c>
       <c r="K11">
-        <v>1.010624205874759</v>
+        <v>1.023363397779722</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9903513680759235</v>
+        <v>1.026563364970906</v>
       </c>
       <c r="N11">
-        <v>1.004238780543219</v>
+        <v>1.010334584709735</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9688151907724389</v>
+        <v>1.011696586764925</v>
       </c>
       <c r="D12">
-        <v>0.9948553069060444</v>
+        <v>1.019587368667871</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9736200924932024</v>
+        <v>1.022683926679882</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033751887496091</v>
+        <v>1.027259286494431</v>
       </c>
       <c r="J12">
-        <v>1.000000605511068</v>
+        <v>1.01852448980548</v>
       </c>
       <c r="K12">
-        <v>1.010081739340268</v>
+        <v>1.023262210312098</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9892707631487623</v>
+        <v>1.026346755617733</v>
       </c>
       <c r="N12">
-        <v>1.004042706246766</v>
+        <v>1.010296584168348</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9690496953089729</v>
+        <v>1.011740163931017</v>
       </c>
       <c r="D13">
-        <v>0.9950195210226954</v>
+        <v>1.019619019656595</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9739040906929157</v>
+        <v>1.022740391985831</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033806975460419</v>
+        <v>1.027265994272372</v>
       </c>
       <c r="J13">
-        <v>1.00012659256055</v>
+        <v>1.018548967509721</v>
       </c>
       <c r="K13">
-        <v>1.010198408282835</v>
+        <v>1.023283919704567</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.989503145819965</v>
+        <v>1.026393218753118</v>
       </c>
       <c r="N13">
-        <v>1.004084871187619</v>
+        <v>1.010304736210915</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9698159405494068</v>
+        <v>1.01188296183168</v>
       </c>
       <c r="D14">
-        <v>0.9955562152738081</v>
+        <v>1.019722732482303</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9748320091748078</v>
+        <v>1.022925424634868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033986661818293</v>
+        <v>1.027287932363154</v>
       </c>
       <c r="J14">
-        <v>1.000538185809224</v>
+        <v>1.018629164257395</v>
       </c>
       <c r="K14">
-        <v>1.010579503868534</v>
+        <v>1.023355035548861</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9902623095668294</v>
+        <v>1.026545459837211</v>
       </c>
       <c r="N14">
-        <v>1.004222620765743</v>
+        <v>1.01033144393314</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9702864335675799</v>
+        <v>1.011970955085847</v>
       </c>
       <c r="D15">
-        <v>0.9958858515252215</v>
+        <v>1.01978663794962</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9754017384052679</v>
+        <v>1.023039444563272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034096752654213</v>
+        <v>1.02730141818112</v>
       </c>
       <c r="J15">
-        <v>1.00079085961311</v>
+        <v>1.018678571305861</v>
       </c>
       <c r="K15">
-        <v>1.010813412276325</v>
+        <v>1.023398839648771</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.990728341645383</v>
+        <v>1.026639261478127</v>
       </c>
       <c r="N15">
-        <v>1.004307183222777</v>
+        <v>1.010347897101013</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.973000696838597</v>
+        <v>1.012483277098438</v>
       </c>
       <c r="D16">
-        <v>0.997788872958327</v>
+        <v>1.020158664000661</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9786880171779294</v>
+        <v>1.023703321512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034728175540336</v>
+        <v>1.027379438278857</v>
       </c>
       <c r="J16">
-        <v>1.002247680969832</v>
+        <v>1.01896606743141</v>
       </c>
       <c r="K16">
-        <v>1.012161369566856</v>
+        <v>1.023653603420488</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9934151859164698</v>
+        <v>1.027185240537101</v>
       </c>
       <c r="N16">
-        <v>1.004794722693044</v>
+        <v>1.010443625629575</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.974682451245411</v>
+        <v>1.012804785894576</v>
       </c>
       <c r="D17">
-        <v>0.9989691169880393</v>
+        <v>1.020392085241425</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9807238325480007</v>
+        <v>1.024119957506873</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035116130015419</v>
+        <v>1.027427961021817</v>
       </c>
       <c r="J17">
-        <v>1.003149556494963</v>
+        <v>1.019146339965202</v>
       </c>
       <c r="K17">
-        <v>1.012995245493165</v>
+        <v>1.023813237354652</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9950785005677778</v>
+        <v>1.027527729624272</v>
       </c>
       <c r="N17">
-        <v>1.005096528472516</v>
+        <v>1.010503641589674</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9756560720224869</v>
+        <v>1.012992367562369</v>
       </c>
       <c r="D18">
-        <v>0.9996527835197784</v>
+        <v>1.020528256695994</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9819023235333368</v>
+        <v>1.024363047369521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035339536062757</v>
+        <v>1.027456112990025</v>
       </c>
       <c r="J18">
-        <v>1.003671394048221</v>
+        <v>1.019251465716326</v>
       </c>
       <c r="K18">
-        <v>1.01347751306512</v>
+        <v>1.023906286558499</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9960409339753812</v>
+        <v>1.027727501396962</v>
       </c>
       <c r="N18">
-        <v>1.005271151030116</v>
+        <v>1.010538636229823</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9759868276934047</v>
+        <v>1.013056336679499</v>
       </c>
       <c r="D19">
-        <v>0.9998851001583249</v>
+        <v>1.020574691121279</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9823026610578617</v>
+        <v>1.024445947115801</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035415227209592</v>
+        <v>1.027465686535363</v>
       </c>
       <c r="J19">
-        <v>1.00384862167005</v>
+        <v>1.019287306751763</v>
       </c>
       <c r="K19">
-        <v>1.013641263137534</v>
+        <v>1.023938003286553</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9963678031927276</v>
+        <v>1.027795619012084</v>
       </c>
       <c r="N19">
-        <v>1.005330455569369</v>
+        <v>1.010550566510106</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9745027760348479</v>
+        <v>1.012770285756281</v>
       </c>
       <c r="D20">
-        <v>0.998842981589206</v>
+        <v>1.020367039188977</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9805063417677883</v>
+        <v>1.024075248838023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035074805189643</v>
+        <v>1.02742277055652</v>
       </c>
       <c r="J20">
-        <v>1.003053231474795</v>
+        <v>1.01912700092114</v>
       </c>
       <c r="K20">
-        <v>1.012906206326682</v>
+        <v>1.023796116608251</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9949008487620419</v>
+        <v>1.027490983400432</v>
       </c>
       <c r="N20">
-        <v>1.005064294685234</v>
+        <v>1.010497203647966</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9695906381985683</v>
+        <v>1.011840909166322</v>
       </c>
       <c r="D21">
-        <v>0.9953983892238025</v>
+        <v>1.019692190684685</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9745591768038411</v>
+        <v>1.022870933962483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033933878066742</v>
+        <v>1.027281478591736</v>
       </c>
       <c r="J21">
-        <v>1.000417174580462</v>
+        <v>1.018605549315296</v>
       </c>
       <c r="K21">
-        <v>1.010467468122944</v>
+        <v>1.023334096352925</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9900391130084525</v>
+        <v>1.026500628446934</v>
       </c>
       <c r="N21">
-        <v>1.004182121633043</v>
+        <v>1.01032357966171</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.966432107339395</v>
+        <v>1.01125704175007</v>
       </c>
       <c r="D22">
-        <v>0.9931875484871414</v>
+        <v>1.019268084991334</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9707336293872875</v>
+        <v>1.022114396818435</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033189582678506</v>
+        <v>1.027191290335294</v>
       </c>
       <c r="J22">
-        <v>0.9987197508070125</v>
+        <v>1.018277480985683</v>
       </c>
       <c r="K22">
-        <v>1.008895180255405</v>
+        <v>1.023043049664325</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9869080411163215</v>
+        <v>1.025877991023498</v>
       </c>
       <c r="N22">
-        <v>1.003614025977748</v>
+        <v>1.010214312854077</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9681133557686912</v>
+        <v>1.011566516074194</v>
       </c>
       <c r="D23">
-        <v>0.9943639466168545</v>
+        <v>1.019492892109626</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9727700884938303</v>
+        <v>1.022515388367321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033586752320014</v>
+        <v>1.027239228847866</v>
       </c>
       <c r="J23">
-        <v>0.9996234871906304</v>
+        <v>1.018451415890014</v>
       </c>
       <c r="K23">
-        <v>1.009732466030074</v>
+        <v>1.023197391381909</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9885751517403759</v>
+        <v>1.026208059059641</v>
       </c>
       <c r="N23">
-        <v>1.003916492599232</v>
+        <v>1.010272246853723</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9745839861004766</v>
+        <v>1.012785874726199</v>
       </c>
       <c r="D24">
-        <v>0.9988999914013436</v>
+        <v>1.020378356357923</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9806046441381554</v>
+        <v>1.024095450535016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035093486993111</v>
+        <v>1.027425116369524</v>
       </c>
       <c r="J24">
-        <v>1.003096769597251</v>
+        <v>1.019135739477488</v>
       </c>
       <c r="K24">
-        <v>1.012946452000453</v>
+        <v>1.023803852930041</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9949811458687219</v>
+        <v>1.027507587425883</v>
       </c>
       <c r="N24">
-        <v>1.005078864113895</v>
+        <v>1.010500112712754</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9818075115460257</v>
+        <v>1.014202869572476</v>
       </c>
       <c r="D25">
-        <v>1.00397849337556</v>
+        <v>1.021406698204939</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9893468816775665</v>
+        <v>1.02593189127462</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036729370662689</v>
+        <v>1.027634921663868</v>
       </c>
       <c r="J25">
-        <v>1.006963029140469</v>
+        <v>1.019928907292634</v>
       </c>
       <c r="K25">
-        <v>1.016515360717417</v>
+        <v>1.024505159378496</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.002112855803262</v>
+        <v>1.029015759625427</v>
       </c>
       <c r="N25">
-        <v>1.006372494643443</v>
+        <v>1.010764079883495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015334624463914</v>
+        <v>0.9873587802518701</v>
       </c>
       <c r="D2">
-        <v>1.022227495211961</v>
+        <v>1.007890688012119</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.027398919303818</v>
+        <v>0.9960644251385622</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027797478233221</v>
+        <v>1.037948081071006</v>
       </c>
       <c r="J2">
-        <v>1.020560732494065</v>
+        <v>1.00992427595069</v>
       </c>
       <c r="K2">
-        <v>1.025062496934452</v>
+        <v>1.019241176790819</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.030218762313519</v>
+        <v>1.007578862444153</v>
       </c>
       <c r="N2">
-        <v>1.01097423641684</v>
+        <v>1.007363025204932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016157263640075</v>
+        <v>0.9912765684828355</v>
       </c>
       <c r="D3">
-        <v>1.022823782703563</v>
+        <v>1.010656029983166</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.028465428481951</v>
+        <v>1.000805827623609</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027912724250136</v>
+        <v>1.038785188049156</v>
       </c>
       <c r="J3">
-        <v>1.02101901036786</v>
+        <v>1.012007901375712</v>
       </c>
       <c r="K3">
-        <v>1.025465980798706</v>
+        <v>1.021154356609369</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.03109228877894</v>
+        <v>1.011428408108124</v>
       </c>
       <c r="N3">
-        <v>1.011126600144823</v>
+        <v>1.008059786542858</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016689968287298</v>
+        <v>0.9937621247702189</v>
       </c>
       <c r="D4">
-        <v>1.023209757317384</v>
+        <v>1.012412099190285</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.029156137189782</v>
+        <v>1.003814455291774</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027986004275579</v>
+        <v>1.039305387175908</v>
       </c>
       <c r="J4">
-        <v>1.021315317404754</v>
+        <v>1.013326753294795</v>
       </c>
       <c r="K4">
-        <v>1.025726503443491</v>
+        <v>1.0223629941272</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.031657533419213</v>
+        <v>1.013867060177012</v>
       </c>
       <c r="N4">
-        <v>1.01122508176115</v>
+        <v>1.008500699760581</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016914012252309</v>
+        <v>0.9947955821411002</v>
       </c>
       <c r="D5">
-        <v>1.02337205217865</v>
+        <v>1.013142595044201</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.029446655390641</v>
+        <v>1.00506557226746</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028016501358796</v>
+        <v>1.039519030042138</v>
       </c>
       <c r="J5">
-        <v>1.02143982896079</v>
+        <v>1.01387435473505</v>
       </c>
       <c r="K5">
-        <v>1.025835892373616</v>
+        <v>1.022864257656564</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.031895164929443</v>
+        <v>1.014880166339566</v>
       </c>
       <c r="N5">
-        <v>1.011266457231374</v>
+        <v>1.008683743534007</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016951635748051</v>
+        <v>0.9949684423607811</v>
       </c>
       <c r="D6">
-        <v>1.023399303979053</v>
+        <v>1.013264799773763</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.029495443111034</v>
+        <v>1.005274850563736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028021603767645</v>
+        <v>1.039554608082331</v>
       </c>
       <c r="J6">
-        <v>1.021460731690366</v>
+        <v>1.013965903533473</v>
       </c>
       <c r="K6">
-        <v>1.025854251319912</v>
+        <v>1.022948025278866</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.031935064437671</v>
+        <v>1.015049573086503</v>
       </c>
       <c r="N6">
-        <v>1.011273402807694</v>
+        <v>1.008714343345602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016692961602371</v>
+        <v>0.9937759784541081</v>
       </c>
       <c r="D7">
-        <v>1.023211925788948</v>
+        <v>1.012421890308205</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.029160018542362</v>
+        <v>1.00383122599853</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027986412997262</v>
+        <v>1.039308261604522</v>
       </c>
       <c r="J7">
-        <v>1.021316981355259</v>
+        <v>1.013334097014642</v>
       </c>
       <c r="K7">
-        <v>1.025727965634756</v>
+        <v>1.022369718720486</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.031660708653659</v>
+        <v>1.013880644381696</v>
       </c>
       <c r="N7">
-        <v>1.011225634725625</v>
+        <v>1.008503154619832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015612555169182</v>
+        <v>0.9886933041344881</v>
       </c>
       <c r="D8">
-        <v>1.022428984088647</v>
+        <v>1.008832273928673</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.027759225121192</v>
+        <v>0.997679410651959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02783669331013</v>
+        <v>1.038235485408377</v>
       </c>
       <c r="J8">
-        <v>1.020715656540081</v>
+        <v>1.010634652028088</v>
       </c>
       <c r="K8">
-        <v>1.025198971149002</v>
+        <v>1.019893920935356</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.030513971146352</v>
+        <v>1.008890907822131</v>
       </c>
       <c r="N8">
-        <v>1.011025750572758</v>
+        <v>1.007600595605736</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013711879274531</v>
+        <v>0.9793395845759941</v>
       </c>
       <c r="D9">
-        <v>1.021050458576415</v>
+        <v>1.002241782607415</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.025295524510665</v>
+        <v>0.9863603657173362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027562999064489</v>
+        <v>1.036176435382331</v>
       </c>
       <c r="J9">
-        <v>1.019654332854543</v>
+        <v>1.005643620033983</v>
       </c>
       <c r="K9">
-        <v>1.02426258751559</v>
+        <v>1.015298592861241</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.028493421686888</v>
+        <v>0.9996786819660267</v>
       </c>
       <c r="N9">
-        <v>1.010672718997262</v>
+        <v>1.005931066963061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012446950444736</v>
+        <v>0.9728096387108458</v>
       </c>
       <c r="D10">
-        <v>1.020132288005091</v>
+        <v>0.9976548438453062</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.023656247546513</v>
+        <v>0.9784567192701741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027373934387244</v>
+        <v>1.034683939871524</v>
       </c>
       <c r="J10">
-        <v>1.018945691653018</v>
+        <v>1.002145183741735</v>
       </c>
       <c r="K10">
-        <v>1.023635554809045</v>
+        <v>1.012066570302552</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.027146536489323</v>
+        <v>0.9932261521524316</v>
       </c>
       <c r="N10">
-        <v>1.010436841680071</v>
+        <v>1.004760421958232</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011899757658281</v>
+        <v>0.9699058448419479</v>
       </c>
       <c r="D11">
-        <v>1.01973493071277</v>
+        <v>0.9956191984595351</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.022947188261094</v>
+        <v>0.9749408780700857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027290508410251</v>
+        <v>1.034007712815807</v>
       </c>
       <c r="J11">
-        <v>1.018638595532318</v>
+        <v>1.000586471285469</v>
       </c>
       <c r="K11">
-        <v>1.023363397779722</v>
+        <v>1.010624205874759</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.026563364970906</v>
+        <v>0.9903513680759232</v>
       </c>
       <c r="N11">
-        <v>1.010334584709735</v>
+        <v>1.004238780543218</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011696586764925</v>
+        <v>0.9688151907724394</v>
       </c>
       <c r="D12">
-        <v>1.019587368667871</v>
+        <v>0.994855306906045</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.022683926679882</v>
+        <v>0.9736200924932028</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027259286494431</v>
+        <v>1.033751887496091</v>
       </c>
       <c r="J12">
-        <v>1.01852448980548</v>
+        <v>1.000000605511068</v>
       </c>
       <c r="K12">
-        <v>1.023262210312098</v>
+        <v>1.010081739340268</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.026346755617733</v>
+        <v>0.9892707631487626</v>
       </c>
       <c r="N12">
-        <v>1.010296584168348</v>
+        <v>1.004042706246766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011740163931017</v>
+        <v>0.9690496953089731</v>
       </c>
       <c r="D13">
-        <v>1.019619019656595</v>
+        <v>0.9950195210226956</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.022740391985831</v>
+        <v>0.9739040906929159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027265994272372</v>
+        <v>1.03380697546042</v>
       </c>
       <c r="J13">
-        <v>1.018548967509721</v>
+        <v>1.00012659256055</v>
       </c>
       <c r="K13">
-        <v>1.023283919704567</v>
+        <v>1.010198408282835</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.026393218753118</v>
+        <v>0.9895031458199651</v>
       </c>
       <c r="N13">
-        <v>1.010304736210915</v>
+        <v>1.00408487118762</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01188296183168</v>
+        <v>0.969815940549407</v>
       </c>
       <c r="D14">
-        <v>1.019722732482303</v>
+        <v>0.9955562152738082</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.022925424634868</v>
+        <v>0.9748320091748078</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027287932363154</v>
+        <v>1.033986661818293</v>
       </c>
       <c r="J14">
-        <v>1.018629164257395</v>
+        <v>1.000538185809225</v>
       </c>
       <c r="K14">
-        <v>1.023355035548861</v>
+        <v>1.010579503868534</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.026545459837211</v>
+        <v>0.9902623095668294</v>
       </c>
       <c r="N14">
-        <v>1.01033144393314</v>
+        <v>1.004222620765743</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011970955085847</v>
+        <v>0.9702864335675798</v>
       </c>
       <c r="D15">
-        <v>1.01978663794962</v>
+        <v>0.9958858515252215</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.023039444563272</v>
+        <v>0.9754017384052682</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02730141818112</v>
+        <v>1.034096752654213</v>
       </c>
       <c r="J15">
-        <v>1.018678571305861</v>
+        <v>1.00079085961311</v>
       </c>
       <c r="K15">
-        <v>1.023398839648771</v>
+        <v>1.010813412276325</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.026639261478127</v>
+        <v>0.990728341645383</v>
       </c>
       <c r="N15">
-        <v>1.010347897101013</v>
+        <v>1.004307183222777</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012483277098438</v>
+        <v>0.9730006968385971</v>
       </c>
       <c r="D16">
-        <v>1.020158664000661</v>
+        <v>0.9977888729583271</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.023703321512</v>
+        <v>0.9786880171779294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027379438278857</v>
+        <v>1.034728175540336</v>
       </c>
       <c r="J16">
-        <v>1.01896606743141</v>
+        <v>1.002247680969832</v>
       </c>
       <c r="K16">
-        <v>1.023653603420488</v>
+        <v>1.012161369566856</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.027185240537101</v>
+        <v>0.9934151859164699</v>
       </c>
       <c r="N16">
-        <v>1.010443625629575</v>
+        <v>1.004794722693044</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012804785894576</v>
+        <v>0.9746824512454115</v>
       </c>
       <c r="D17">
-        <v>1.020392085241425</v>
+        <v>0.9989691169880396</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.024119957506873</v>
+        <v>0.9807238325480011</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027427961021817</v>
+        <v>1.035116130015419</v>
       </c>
       <c r="J17">
-        <v>1.019146339965202</v>
+        <v>1.003149556494963</v>
       </c>
       <c r="K17">
-        <v>1.023813237354652</v>
+        <v>1.012995245493165</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.027527729624272</v>
+        <v>0.9950785005677782</v>
       </c>
       <c r="N17">
-        <v>1.010503641589674</v>
+        <v>1.005096528472517</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012992367562369</v>
+        <v>0.9756560720224873</v>
       </c>
       <c r="D18">
-        <v>1.020528256695994</v>
+        <v>0.9996527835197786</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.024363047369521</v>
+        <v>0.9819023235333371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027456112990025</v>
+        <v>1.035339536062757</v>
       </c>
       <c r="J18">
-        <v>1.019251465716326</v>
+        <v>1.003671394048221</v>
       </c>
       <c r="K18">
-        <v>1.023906286558499</v>
+        <v>1.01347751306512</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.027727501396962</v>
+        <v>0.9960409339753814</v>
       </c>
       <c r="N18">
-        <v>1.010538636229823</v>
+        <v>1.005271151030116</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013056336679499</v>
+        <v>0.9759868276934046</v>
       </c>
       <c r="D19">
-        <v>1.020574691121279</v>
+        <v>0.9998851001583249</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.024445947115801</v>
+        <v>0.9823026610578617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027465686535363</v>
+        <v>1.035415227209591</v>
       </c>
       <c r="J19">
-        <v>1.019287306751763</v>
+        <v>1.003848621670049</v>
       </c>
       <c r="K19">
-        <v>1.023938003286553</v>
+        <v>1.013641263137534</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.027795619012084</v>
+        <v>0.9963678031927276</v>
       </c>
       <c r="N19">
-        <v>1.010550566510106</v>
+        <v>1.005330455569369</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012770285756281</v>
+        <v>0.9745027760348479</v>
       </c>
       <c r="D20">
-        <v>1.020367039188977</v>
+        <v>0.9988429815892061</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.024075248838023</v>
+        <v>0.9805063417677881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02742277055652</v>
+        <v>1.035074805189643</v>
       </c>
       <c r="J20">
-        <v>1.01912700092114</v>
+        <v>1.003053231474795</v>
       </c>
       <c r="K20">
-        <v>1.023796116608251</v>
+        <v>1.012906206326682</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.027490983400432</v>
+        <v>0.9949008487620417</v>
       </c>
       <c r="N20">
-        <v>1.010497203647966</v>
+        <v>1.005064294685235</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011840909166322</v>
+        <v>0.9695906381985685</v>
       </c>
       <c r="D21">
-        <v>1.019692190684685</v>
+        <v>0.9953983892238026</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.022870933962483</v>
+        <v>0.9745591768038412</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027281478591736</v>
+        <v>1.033933878066742</v>
       </c>
       <c r="J21">
-        <v>1.018605549315296</v>
+        <v>1.000417174580462</v>
       </c>
       <c r="K21">
-        <v>1.023334096352925</v>
+        <v>1.010467468122944</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.026500628446934</v>
+        <v>0.9900391130084526</v>
       </c>
       <c r="N21">
-        <v>1.01032357966171</v>
+        <v>1.004182121633043</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01125704175007</v>
+        <v>0.9664321073393947</v>
       </c>
       <c r="D22">
-        <v>1.019268084991334</v>
+        <v>0.9931875484871415</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.022114396818435</v>
+        <v>0.9707336293872874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027191290335294</v>
+        <v>1.033189582678506</v>
       </c>
       <c r="J22">
-        <v>1.018277480985683</v>
+        <v>0.9987197508070124</v>
       </c>
       <c r="K22">
-        <v>1.023043049664325</v>
+        <v>1.008895180255405</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.025877991023498</v>
+        <v>0.9869080411163216</v>
       </c>
       <c r="N22">
-        <v>1.010214312854077</v>
+        <v>1.003614025977748</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011566516074194</v>
+        <v>0.9681133557686907</v>
       </c>
       <c r="D23">
-        <v>1.019492892109626</v>
+        <v>0.994363946616854</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.022515388367321</v>
+        <v>0.9727700884938296</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027239228847866</v>
+        <v>1.033586752320014</v>
       </c>
       <c r="J23">
-        <v>1.018451415890014</v>
+        <v>0.9996234871906299</v>
       </c>
       <c r="K23">
-        <v>1.023197391381909</v>
+        <v>1.009732466030074</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.026208059059641</v>
+        <v>0.9885751517403754</v>
       </c>
       <c r="N23">
-        <v>1.010272246853723</v>
+        <v>1.003916492599232</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012785874726199</v>
+        <v>0.9745839861004765</v>
       </c>
       <c r="D24">
-        <v>1.020378356357923</v>
+        <v>0.9988999914013432</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.024095450535016</v>
+        <v>0.9806046441381553</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027425116369524</v>
+        <v>1.035093486993111</v>
       </c>
       <c r="J24">
-        <v>1.019135739477488</v>
+        <v>1.00309676959725</v>
       </c>
       <c r="K24">
-        <v>1.023803852930041</v>
+        <v>1.012946452000453</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.027507587425883</v>
+        <v>0.9949811458687219</v>
       </c>
       <c r="N24">
-        <v>1.010500112712754</v>
+        <v>1.005078864113895</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.014202869572476</v>
+        <v>0.9818075115460257</v>
       </c>
       <c r="D25">
-        <v>1.021406698204939</v>
+        <v>1.00397849337556</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.02593189127462</v>
+        <v>0.9893468816775665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027634921663868</v>
+        <v>1.036729370662689</v>
       </c>
       <c r="J25">
-        <v>1.019928907292634</v>
+        <v>1.006963029140469</v>
       </c>
       <c r="K25">
-        <v>1.024505159378496</v>
+        <v>1.016515360717417</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.029015759625427</v>
+        <v>1.002112855803262</v>
       </c>
       <c r="N25">
-        <v>1.010764079883495</v>
+        <v>1.006372494643443</v>
       </c>
     </row>
   </sheetData>
